--- a/output/riclpm_democracy_inequality_controls_constrained.xlsx
+++ b/output/riclpm_democracy_inequality_controls_constrained.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="ACEPTACION DESIGUALDAD" sheetId="1" r:id="rId1"/>
-    <sheet name="JUST DIST PENSIONES" sheetId="2" r:id="rId2"/>
-    <sheet name="JUST DIST EDUC" sheetId="3" r:id="rId3"/>
-    <sheet name="JUST DIST SALUD" sheetId="4" r:id="rId4"/>
+    <sheet name="HAY GRUPOS INFERIORES" sheetId="2" r:id="rId2"/>
+    <sheet name="JUST DIST PENSIONES" sheetId="3" r:id="rId3"/>
+    <sheet name="JUST DIST EDUC" sheetId="4" r:id="rId4"/>
+    <sheet name="JUST DIST SALUD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -7917,6 +7918,3921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>varx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rhs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>std.all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>-0.07935323067048028</v>
+      </c>
+      <c r="G2">
+        <v>0.008185094044009713</v>
+      </c>
+      <c r="H2">
+        <v>-9.694846539796961</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-0.164935185802079</v>
+      </c>
+      <c r="K2">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L2">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>-0.07935323067048029</v>
+      </c>
+      <c r="G3">
+        <v>0.008185094044009845</v>
+      </c>
+      <c r="H3">
+        <v>-9.694846539796806</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-0.1638385328572503</v>
+      </c>
+      <c r="K3">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L3">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>-0.07935323067048025</v>
+      </c>
+      <c r="G4">
+        <v>0.008185094044009873</v>
+      </c>
+      <c r="H4">
+        <v>-9.694846539796769</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-0.1748470504548919</v>
+      </c>
+      <c r="K4">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L4">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>0.06173692140139891</v>
+      </c>
+      <c r="G5">
+        <v>0.005925823632904934</v>
+      </c>
+      <c r="H5">
+        <v>10.41828532637825</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.1913332242396849</v>
+      </c>
+      <c r="K5">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L5">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>0.06173692140139892</v>
+      </c>
+      <c r="G6">
+        <v>0.005925823632904873</v>
+      </c>
+      <c r="H6">
+        <v>10.41828532637836</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.2005889765075827</v>
+      </c>
+      <c r="K6">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L6">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.06173692140139889</v>
+      </c>
+      <c r="G7">
+        <v>0.005925823632904888</v>
+      </c>
+      <c r="H7">
+        <v>10.41828532637832</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.1861688685666247</v>
+      </c>
+      <c r="K7">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L7">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>-0.005549846015646068</v>
+      </c>
+      <c r="G8">
+        <v>0.000817730572150016</v>
+      </c>
+      <c r="H8">
+        <v>-6.786888254714692</v>
+      </c>
+      <c r="I8">
+        <v>1.145772365873654E-11</v>
+      </c>
+      <c r="J8">
+        <v>-0.1194657088124253</v>
+      </c>
+      <c r="K8">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L8">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>-0.005549846015646106</v>
+      </c>
+      <c r="G9">
+        <v>0.0008177305721500168</v>
+      </c>
+      <c r="H9">
+        <v>-6.78688825471473</v>
+      </c>
+      <c r="I9">
+        <v>1.145772365873654E-11</v>
+      </c>
+      <c r="J9">
+        <v>-0.1252448671874058</v>
+      </c>
+      <c r="K9">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L9">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>-0.005549846015646073</v>
+      </c>
+      <c r="G10">
+        <v>0.0008177305721500194</v>
+      </c>
+      <c r="H10">
+        <v>-6.786888254714668</v>
+      </c>
+      <c r="I10">
+        <v>1.145772365873654E-11</v>
+      </c>
+      <c r="J10">
+        <v>-0.116241159529397</v>
+      </c>
+      <c r="K10">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L10">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.06734348090136205</v>
+      </c>
+      <c r="G11">
+        <v>0.02213381882259653</v>
+      </c>
+      <c r="H11">
+        <v>3.042560411338091</v>
+      </c>
+      <c r="I11">
+        <v>0.002345747273259757</v>
+      </c>
+      <c r="J11">
+        <v>0.04640482193163136</v>
+      </c>
+      <c r="K11">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L11">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>0.06734348090136205</v>
+      </c>
+      <c r="G12">
+        <v>0.02213381882259665</v>
+      </c>
+      <c r="H12">
+        <v>3.042560411338073</v>
+      </c>
+      <c r="I12">
+        <v>0.002345747273259757</v>
+      </c>
+      <c r="J12">
+        <v>0.04864965702256694</v>
+      </c>
+      <c r="K12">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L12">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>0.06734348090136202</v>
+      </c>
+      <c r="G13">
+        <v>0.02213381882259659</v>
+      </c>
+      <c r="H13">
+        <v>3.04256041133808</v>
+      </c>
+      <c r="I13">
+        <v>0.002345747273259757</v>
+      </c>
+      <c r="J13">
+        <v>0.04515228983035995</v>
+      </c>
+      <c r="K13">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L13">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.05481988867944472</v>
+      </c>
+      <c r="G14">
+        <v>0.02166934731040599</v>
+      </c>
+      <c r="H14">
+        <v>2.529835711900712</v>
+      </c>
+      <c r="I14">
+        <v>0.01141159460152763</v>
+      </c>
+      <c r="J14">
+        <v>0.05850330611918846</v>
+      </c>
+      <c r="K14">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L14">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>0.05481988867944471</v>
+      </c>
+      <c r="G15">
+        <v>0.0216693473104068</v>
+      </c>
+      <c r="H15">
+        <v>2.529835711900617</v>
+      </c>
+      <c r="I15">
+        <v>0.01141159460153074</v>
+      </c>
+      <c r="J15">
+        <v>0.0544553916070757</v>
+      </c>
+      <c r="K15">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L15">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>cx2</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>0.05481988867944469</v>
+      </c>
+      <c r="G16">
+        <v>0.02166934731040797</v>
+      </c>
+      <c r="H16">
+        <v>2.52983571190048</v>
+      </c>
+      <c r="I16">
+        <v>0.01141159460153518</v>
+      </c>
+      <c r="J16">
+        <v>0.05701746346380512</v>
+      </c>
+      <c r="K16">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L16">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>0.06801160525792781</v>
+      </c>
+      <c r="G17">
+        <v>0.02714261685969072</v>
+      </c>
+      <c r="H17">
+        <v>2.505712901946875</v>
+      </c>
+      <c r="I17">
+        <v>0.01222048020954025</v>
+      </c>
+      <c r="J17">
+        <v>0.07972822490271736</v>
+      </c>
+      <c r="K17">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L17">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0.06801160525792779</v>
+      </c>
+      <c r="G18">
+        <v>0.02714261685969078</v>
+      </c>
+      <c r="H18">
+        <v>2.505712901946869</v>
+      </c>
+      <c r="I18">
+        <v>0.01222048020954047</v>
+      </c>
+      <c r="J18">
+        <v>0.06312233015352013</v>
+      </c>
+      <c r="K18">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L18">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0.06801160525792781</v>
+      </c>
+      <c r="G19">
+        <v>0.02714261685969084</v>
+      </c>
+      <c r="H19">
+        <v>2.505712901946863</v>
+      </c>
+      <c r="I19">
+        <v>0.0122204802095407</v>
+      </c>
+      <c r="J19">
+        <v>0.07130166934434523</v>
+      </c>
+      <c r="K19">
+        <v>0.8595809954307512</v>
+      </c>
+      <c r="L19">
+        <v>0.05338180749725489</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>-0.08489112604562274</v>
+      </c>
+      <c r="G20">
+        <v>0.007515153247526147</v>
+      </c>
+      <c r="H20">
+        <v>-11.29599400698414</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>-0.1761741892444606</v>
+      </c>
+      <c r="K20">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L20">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>-0.08489112604562279</v>
+      </c>
+      <c r="G21">
+        <v>0.007515153247526138</v>
+      </c>
+      <c r="H21">
+        <v>-11.29599400698416</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>-0.1759928046601621</v>
+      </c>
+      <c r="K21">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L21">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>-0.08489112604562279</v>
+      </c>
+      <c r="G22">
+        <v>0.00751515324752615</v>
+      </c>
+      <c r="H22">
+        <v>-11.29599400698414</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>-0.1720084918365153</v>
+      </c>
+      <c r="K22">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L22">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>-0.08489112604562278</v>
+      </c>
+      <c r="G23">
+        <v>0.007515153247526146</v>
+      </c>
+      <c r="H23">
+        <v>-11.29599400698415</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>-0.189787700531896</v>
+      </c>
+      <c r="K23">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L23">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0.1690789757854284</v>
+      </c>
+      <c r="G24">
+        <v>0.02418461570372392</v>
+      </c>
+      <c r="H24">
+        <v>6.991178931960198</v>
+      </c>
+      <c r="I24">
+        <v>2.725819570059684E-12</v>
+      </c>
+      <c r="J24">
+        <v>0.1894257179183366</v>
+      </c>
+      <c r="K24">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L24">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0.1690789757854284</v>
+      </c>
+      <c r="G25">
+        <v>0.02418461570372391</v>
+      </c>
+      <c r="H25">
+        <v>6.991178931960202</v>
+      </c>
+      <c r="I25">
+        <v>2.725819570059684E-12</v>
+      </c>
+      <c r="J25">
+        <v>0.09620118254395565</v>
+      </c>
+      <c r="K25">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L25">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>0.1690789757854285</v>
+      </c>
+      <c r="G26">
+        <v>0.02418461570372393</v>
+      </c>
+      <c r="H26">
+        <v>6.991178931960199</v>
+      </c>
+      <c r="I26">
+        <v>2.725819570059684E-12</v>
+      </c>
+      <c r="J26">
+        <v>0.2610946386680714</v>
+      </c>
+      <c r="K26">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L26">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>0.1690789757854285</v>
+      </c>
+      <c r="G27">
+        <v>0.02418461570372387</v>
+      </c>
+      <c r="H27">
+        <v>6.991178931960215</v>
+      </c>
+      <c r="I27">
+        <v>2.725819570059684E-12</v>
+      </c>
+      <c r="J27">
+        <v>0.1990740545419756</v>
+      </c>
+      <c r="K27">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L27">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>-0.003835639704246101</v>
+      </c>
+      <c r="G28">
+        <v>0.0006111852280361753</v>
+      </c>
+      <c r="H28">
+        <v>-6.275740198385609</v>
+      </c>
+      <c r="I28">
+        <v>3.479747601176086E-10</v>
+      </c>
+      <c r="J28">
+        <v>-0.1188013720090979</v>
+      </c>
+      <c r="K28">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L28">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>-0.003835639704246024</v>
+      </c>
+      <c r="G29">
+        <v>0.0006111852280361749</v>
+      </c>
+      <c r="H29">
+        <v>-6.275740198385489</v>
+      </c>
+      <c r="I29">
+        <v>3.479747601176086E-10</v>
+      </c>
+      <c r="J29">
+        <v>-0.06759463985411926</v>
+      </c>
+      <c r="K29">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L29">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>-0.003835639704246059</v>
+      </c>
+      <c r="G30">
+        <v>0.0006111852280361732</v>
+      </c>
+      <c r="H30">
+        <v>-6.275740198385563</v>
+      </c>
+      <c r="I30">
+        <v>3.479747601176086E-10</v>
+      </c>
+      <c r="J30">
+        <v>-0.1043807959364917</v>
+      </c>
+      <c r="K30">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L30">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>-0.003835639704246118</v>
+      </c>
+      <c r="G31">
+        <v>0.0006111852280361722</v>
+      </c>
+      <c r="H31">
+        <v>-6.27574019838567</v>
+      </c>
+      <c r="I31">
+        <v>3.479747601176086E-10</v>
+      </c>
+      <c r="J31">
+        <v>-0.1228982383342963</v>
+      </c>
+      <c r="K31">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L31">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>0.02391545977314309</v>
+      </c>
+      <c r="G32">
+        <v>0.004304015425386199</v>
+      </c>
+      <c r="H32">
+        <v>5.556546017954189</v>
+      </c>
+      <c r="I32">
+        <v>2.751652017352058E-08</v>
+      </c>
+      <c r="J32">
+        <v>0.1066462221726779</v>
+      </c>
+      <c r="K32">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L32">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>0.02391545977314315</v>
+      </c>
+      <c r="G33">
+        <v>0.004304015425386199</v>
+      </c>
+      <c r="H33">
+        <v>5.556546017954203</v>
+      </c>
+      <c r="I33">
+        <v>2.751652017352058E-08</v>
+      </c>
+      <c r="J33">
+        <v>0.06067870141274682</v>
+      </c>
+      <c r="K33">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L33">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>0.02391545977314313</v>
+      </c>
+      <c r="G34">
+        <v>0.004304015425386212</v>
+      </c>
+      <c r="H34">
+        <v>5.556546017954182</v>
+      </c>
+      <c r="I34">
+        <v>2.751652017352058E-08</v>
+      </c>
+      <c r="J34">
+        <v>0.09370108581870337</v>
+      </c>
+      <c r="K34">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L34">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>0.02391545977314322</v>
+      </c>
+      <c r="G35">
+        <v>0.004304015425386197</v>
+      </c>
+      <c r="H35">
+        <v>5.556546017954221</v>
+      </c>
+      <c r="I35">
+        <v>2.751652017352058E-08</v>
+      </c>
+      <c r="J35">
+        <v>0.1103239180522795</v>
+      </c>
+      <c r="K35">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L35">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>0.06290987980063352</v>
+      </c>
+      <c r="G36">
+        <v>0.01664542062539154</v>
+      </c>
+      <c r="H36">
+        <v>3.779410638903799</v>
+      </c>
+      <c r="I36">
+        <v>0.0001571999955660708</v>
+      </c>
+      <c r="J36">
+        <v>0.06148565884280657</v>
+      </c>
+      <c r="K36">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L36">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>cx2</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>0.06290987980063348</v>
+      </c>
+      <c r="G37">
+        <v>0.0166454206253941</v>
+      </c>
+      <c r="H37">
+        <v>3.779410638903215</v>
+      </c>
+      <c r="I37">
+        <v>0.0001571999955662928</v>
+      </c>
+      <c r="J37">
+        <v>0.0652278830429955</v>
+      </c>
+      <c r="K37">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L37">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>0.06290987980063348</v>
+      </c>
+      <c r="G38">
+        <v>0.01664542062539414</v>
+      </c>
+      <c r="H38">
+        <v>3.779410638903206</v>
+      </c>
+      <c r="I38">
+        <v>0.0001571999955662928</v>
+      </c>
+      <c r="J38">
+        <v>0.0628451093456375</v>
+      </c>
+      <c r="K38">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L38">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>0.06290987980063349</v>
+      </c>
+      <c r="G39">
+        <v>0.01664542062539318</v>
+      </c>
+      <c r="H39">
+        <v>3.779410638903425</v>
+      </c>
+      <c r="I39">
+        <v>0.0001571999955662928</v>
+      </c>
+      <c r="J39">
+        <v>0.06941239528713541</v>
+      </c>
+      <c r="K39">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L39">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>-0.05441763412925535</v>
+      </c>
+      <c r="G40">
+        <v>0.02540197140385475</v>
+      </c>
+      <c r="H40">
+        <v>-2.142260270437021</v>
+      </c>
+      <c r="I40">
+        <v>0.03217254395969493</v>
+      </c>
+      <c r="J40">
+        <v>-0.02837280256699143</v>
+      </c>
+      <c r="K40">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L40">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>-0.05441763412925534</v>
+      </c>
+      <c r="G41">
+        <v>0.02540197140385474</v>
+      </c>
+      <c r="H41">
+        <v>-2.142260270437022</v>
+      </c>
+      <c r="I41">
+        <v>0.03217254395969493</v>
+      </c>
+      <c r="J41">
+        <v>-0.02529912689137517</v>
+      </c>
+      <c r="K41">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L41">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>-0.05441763412925537</v>
+      </c>
+      <c r="G42">
+        <v>0.02540197140385475</v>
+      </c>
+      <c r="H42">
+        <v>-2.142260270437021</v>
+      </c>
+      <c r="I42">
+        <v>0.03217254395969493</v>
+      </c>
+      <c r="J42">
+        <v>-0.03105128211100102</v>
+      </c>
+      <c r="K42">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L42">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>-0.05441763412925534</v>
+      </c>
+      <c r="G43">
+        <v>0.02540197140385477</v>
+      </c>
+      <c r="H43">
+        <v>-2.142260270437019</v>
+      </c>
+      <c r="I43">
+        <v>0.03217254395969515</v>
+      </c>
+      <c r="J43">
+        <v>-0.04345799711332955</v>
+      </c>
+      <c r="K43">
+        <v>0.8253109003191104</v>
+      </c>
+      <c r="L43">
+        <v>0.05946648943242112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>-0.0837933950990644</v>
+      </c>
+      <c r="G44">
+        <v>0.008102783857514038</v>
+      </c>
+      <c r="H44">
+        <v>-10.34130942803804</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>-0.1740058086685761</v>
+      </c>
+      <c r="K44">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L44">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>-0.08379339509906444</v>
+      </c>
+      <c r="G45">
+        <v>0.00810278385751405</v>
+      </c>
+      <c r="H45">
+        <v>-10.34130942803804</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>-0.1727532232384969</v>
+      </c>
+      <c r="K45">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L45">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>-0.08379339509906442</v>
+      </c>
+      <c r="G46">
+        <v>0.008102783857514029</v>
+      </c>
+      <c r="H46">
+        <v>-10.34130942803806</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>-0.1846036454978407</v>
+      </c>
+      <c r="K46">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L46">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>-0.002325717631373112</v>
+      </c>
+      <c r="G47">
+        <v>0.0004852876932280068</v>
+      </c>
+      <c r="H47">
+        <v>-4.792451289879303</v>
+      </c>
+      <c r="I47">
+        <v>1.647557811734757E-06</v>
+      </c>
+      <c r="J47">
+        <v>-0.08760857015925838</v>
+      </c>
+      <c r="K47">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L47">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>-0.002325717631373151</v>
+      </c>
+      <c r="G48">
+        <v>0.0004852876932280092</v>
+      </c>
+      <c r="H48">
+        <v>-4.792451289879359</v>
+      </c>
+      <c r="I48">
+        <v>1.647557811734757E-06</v>
+      </c>
+      <c r="J48">
+        <v>-0.06727857636544646</v>
+      </c>
+      <c r="K48">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L48">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>-0.002325717631373098</v>
+      </c>
+      <c r="G49">
+        <v>0.0004852876932280066</v>
+      </c>
+      <c r="H49">
+        <v>-4.792451289879276</v>
+      </c>
+      <c r="I49">
+        <v>1.647557811734757E-06</v>
+      </c>
+      <c r="J49">
+        <v>-0.1091193284997262</v>
+      </c>
+      <c r="K49">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L49">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>0.01532753910088832</v>
+      </c>
+      <c r="G50">
+        <v>0.00368030120847258</v>
+      </c>
+      <c r="H50">
+        <v>4.164751261554933</v>
+      </c>
+      <c r="I50">
+        <v>3.116921946122453E-05</v>
+      </c>
+      <c r="J50">
+        <v>0.08312757857957215</v>
+      </c>
+      <c r="K50">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L50">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>0.0153275391008883</v>
+      </c>
+      <c r="G51">
+        <v>0.003680301208472573</v>
+      </c>
+      <c r="H51">
+        <v>4.164751261554935</v>
+      </c>
+      <c r="I51">
+        <v>3.116921946122453E-05</v>
+      </c>
+      <c r="J51">
+        <v>0.06383742062418837</v>
+      </c>
+      <c r="K51">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L51">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>0.01532753910088831</v>
+      </c>
+      <c r="G52">
+        <v>0.003680301208472573</v>
+      </c>
+      <c r="H52">
+        <v>4.164751261554938</v>
+      </c>
+      <c r="I52">
+        <v>3.116921946122453E-05</v>
+      </c>
+      <c r="J52">
+        <v>0.1035381074924733</v>
+      </c>
+      <c r="K52">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L52">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>0.05443969741381903</v>
+      </c>
+      <c r="G53">
+        <v>0.02184067988770694</v>
+      </c>
+      <c r="H53">
+        <v>2.492582542929925</v>
+      </c>
+      <c r="I53">
+        <v>0.01268178499800832</v>
+      </c>
+      <c r="J53">
+        <v>0.0540478118076991</v>
+      </c>
+      <c r="K53">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L53">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>0.05443969741381903</v>
+      </c>
+      <c r="G54">
+        <v>0.02184067988770697</v>
+      </c>
+      <c r="H54">
+        <v>2.492582542929922</v>
+      </c>
+      <c r="I54">
+        <v>0.01268178499800854</v>
+      </c>
+      <c r="J54">
+        <v>0.05817411920885561</v>
+      </c>
+      <c r="K54">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L54">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>cx2</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>0.05443969741381902</v>
+      </c>
+      <c r="G55">
+        <v>0.02184067988770855</v>
+      </c>
+      <c r="H55">
+        <v>2.492582542929741</v>
+      </c>
+      <c r="I55">
+        <v>0.01268178499801498</v>
+      </c>
+      <c r="J55">
+        <v>0.05663157312306308</v>
+      </c>
+      <c r="K55">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L55">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>-0.03515129716492921</v>
+      </c>
+      <c r="G56">
+        <v>0.01453926343328802</v>
+      </c>
+      <c r="H56">
+        <v>-2.417680739207834</v>
+      </c>
+      <c r="I56">
+        <v>0.01561977469353515</v>
+      </c>
+      <c r="J56">
+        <v>-0.05279481526952397</v>
+      </c>
+      <c r="K56">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L56">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>-0.03515129716492917</v>
+      </c>
+      <c r="G57">
+        <v>0.01453926343328805</v>
+      </c>
+      <c r="H57">
+        <v>-2.417680739207825</v>
+      </c>
+      <c r="I57">
+        <v>0.01561977469353559</v>
+      </c>
+      <c r="J57">
+        <v>-0.04238734183189873</v>
+      </c>
+      <c r="K57">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L57">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>-0.03515129716492915</v>
+      </c>
+      <c r="G58">
+        <v>0.01453926343328805</v>
+      </c>
+      <c r="H58">
+        <v>-2.417680739207824</v>
+      </c>
+      <c r="I58">
+        <v>0.01561977469353559</v>
+      </c>
+      <c r="J58">
+        <v>-0.03255115349082388</v>
+      </c>
+      <c r="K58">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L58">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>0.002600258602946101</v>
+      </c>
+      <c r="G59">
+        <v>0.001129250610432428</v>
+      </c>
+      <c r="H59">
+        <v>2.302640865476597</v>
+      </c>
+      <c r="I59">
+        <v>0.02129905788829722</v>
+      </c>
+      <c r="J59">
+        <v>0.03750484806110951</v>
+      </c>
+      <c r="K59">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L59">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>0.002600258602946084</v>
+      </c>
+      <c r="G60">
+        <v>0.001129250610432423</v>
+      </c>
+      <c r="H60">
+        <v>2.302640865476592</v>
+      </c>
+      <c r="I60">
+        <v>0.02129905788829767</v>
+      </c>
+      <c r="J60">
+        <v>0.03723486841733679</v>
+      </c>
+      <c r="K60">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L60">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>0.002600258602946105</v>
+      </c>
+      <c r="G61">
+        <v>0.001129250610432433</v>
+      </c>
+      <c r="H61">
+        <v>2.302640865476589</v>
+      </c>
+      <c r="I61">
+        <v>0.02129905788829789</v>
+      </c>
+      <c r="J61">
+        <v>0.03978908364553794</v>
+      </c>
+      <c r="K61">
+        <v>0.8542747308894041</v>
+      </c>
+      <c r="L61">
+        <v>0.05093810581574737</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>-0.08477085167428759</v>
+      </c>
+      <c r="G62">
+        <v>0.007644624517432685</v>
+      </c>
+      <c r="H62">
+        <v>-11.08894903614657</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>-0.1764716895686767</v>
+      </c>
+      <c r="K62">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L62">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>-0.08477085167428766</v>
+      </c>
+      <c r="G63">
+        <v>0.007644624517432942</v>
+      </c>
+      <c r="H63">
+        <v>-11.0889490361462</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>-0.1762858423606292</v>
+      </c>
+      <c r="K63">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L63">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>-0.08477085167428765</v>
+      </c>
+      <c r="G64">
+        <v>0.007644624517432895</v>
+      </c>
+      <c r="H64">
+        <v>-11.08894903614627</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>-0.1721932549303783</v>
+      </c>
+      <c r="K64">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L64">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>-0.08477085167428763</v>
+      </c>
+      <c r="G65">
+        <v>0.007644624517432838</v>
+      </c>
+      <c r="H65">
+        <v>-11.08894903614635</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>-0.1892429773030189</v>
+      </c>
+      <c r="K65">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L65">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>-0.009527830710107387</v>
+      </c>
+      <c r="G66">
+        <v>0.001037397572213947</v>
+      </c>
+      <c r="H66">
+        <v>-9.184358017894434</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>-0.1796627073174034</v>
+      </c>
+      <c r="K66">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L66">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>0.06304120137983316</v>
+      </c>
+      <c r="G67">
+        <v>0.007246370560749407</v>
+      </c>
+      <c r="H67">
+        <v>8.699693294916669</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.1711478622997932</v>
+      </c>
+      <c r="K67">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L67">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>-0.009527830710107314</v>
+      </c>
+      <c r="G68">
+        <v>0.001037397572213953</v>
+      </c>
+      <c r="H68">
+        <v>-9.184358017894311</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>-0.1489376919213301</v>
+      </c>
+      <c r="K68">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L68">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>0.06304120137983321</v>
+      </c>
+      <c r="G69">
+        <v>0.007246370560749402</v>
+      </c>
+      <c r="H69">
+        <v>8.699693294916683</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.1418790130061224</v>
+      </c>
+      <c r="K69">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L69">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>-0.009527830710107345</v>
+      </c>
+      <c r="G70">
+        <v>0.001037397572213951</v>
+      </c>
+      <c r="H70">
+        <v>-9.184358017894366</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>-0.1561735617263131</v>
+      </c>
+      <c r="K70">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L70">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>0.06304120137983318</v>
+      </c>
+      <c r="G71">
+        <v>0.007246370560749432</v>
+      </c>
+      <c r="H71">
+        <v>8.699693294916644</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.148771949595431</v>
+      </c>
+      <c r="K71">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L71">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>-0.009527830710107387</v>
+      </c>
+      <c r="G72">
+        <v>0.001037397572213944</v>
+      </c>
+      <c r="H72">
+        <v>-9.184358017894461</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>-0.1685896370292922</v>
+      </c>
+      <c r="K72">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L72">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>0.06304120137983327</v>
+      </c>
+      <c r="G73">
+        <v>0.007246370560749425</v>
+      </c>
+      <c r="H73">
+        <v>8.699693294916662</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.1605995835990973</v>
+      </c>
+      <c r="K73">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L73">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>0.169256182716772</v>
+      </c>
+      <c r="G74">
+        <v>0.02415979060007034</v>
+      </c>
+      <c r="H74">
+        <v>7.00569742174335</v>
+      </c>
+      <c r="I74">
+        <v>2.457589687310247E-12</v>
+      </c>
+      <c r="J74">
+        <v>0.1850196342539925</v>
+      </c>
+      <c r="K74">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L74">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>0.169256182716772</v>
+      </c>
+      <c r="G75">
+        <v>0.02415979060007032</v>
+      </c>
+      <c r="H75">
+        <v>7.005697421743356</v>
+      </c>
+      <c r="I75">
+        <v>2.457589687310247E-12</v>
+      </c>
+      <c r="J75">
+        <v>0.1403108389807129</v>
+      </c>
+      <c r="K75">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L75">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>0.1692561827167721</v>
+      </c>
+      <c r="G76">
+        <v>0.02415979060007033</v>
+      </c>
+      <c r="H76">
+        <v>7.005697421743357</v>
+      </c>
+      <c r="I76">
+        <v>2.457589687310247E-12</v>
+      </c>
+      <c r="J76">
+        <v>0.1774791898416159</v>
+      </c>
+      <c r="K76">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L76">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>0.169256182716772</v>
+      </c>
+      <c r="G77">
+        <v>0.02415979060007031</v>
+      </c>
+      <c r="H77">
+        <v>7.00569742174336</v>
+      </c>
+      <c r="I77">
+        <v>2.457589687310247E-12</v>
+      </c>
+      <c r="J77">
+        <v>0.1827123496049224</v>
+      </c>
+      <c r="K77">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L77">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>cx2</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>0.05999915659800598</v>
+      </c>
+      <c r="G78">
+        <v>0.01671084855597864</v>
+      </c>
+      <c r="H78">
+        <v>3.590431473124691</v>
+      </c>
+      <c r="I78">
+        <v>0.0003301310183669859</v>
+      </c>
+      <c r="J78">
+        <v>0.06215630772350918</v>
+      </c>
+      <c r="K78">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L78">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>0.059999156598006</v>
+      </c>
+      <c r="G79">
+        <v>0.01671084855597862</v>
+      </c>
+      <c r="H79">
+        <v>3.590431473124694</v>
+      </c>
+      <c r="I79">
+        <v>0.0003301310183669859</v>
+      </c>
+      <c r="J79">
+        <v>0.05860623819440371</v>
+      </c>
+      <c r="K79">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L79">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>0.05999915659800599</v>
+      </c>
+      <c r="G80">
+        <v>0.01671084855597924</v>
+      </c>
+      <c r="H80">
+        <v>3.590431473124561</v>
+      </c>
+      <c r="I80">
+        <v>0.0003301310183672079</v>
+      </c>
+      <c r="J80">
+        <v>0.05993596982982687</v>
+      </c>
+      <c r="K80">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L80">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>0.05999915659800598</v>
+      </c>
+      <c r="G81">
+        <v>0.01671084855597956</v>
+      </c>
+      <c r="H81">
+        <v>3.590431473124493</v>
+      </c>
+      <c r="I81">
+        <v>0.0003301310183672079</v>
+      </c>
+      <c r="J81">
+        <v>0.06593997560977391</v>
+      </c>
+      <c r="K81">
+        <v>0.8885038408603879</v>
+      </c>
+      <c r="L81">
+        <v>0.05628446852912172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16534,7 +20450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L171"/>
   <sheetViews>
@@ -24769,7 +28685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L169"/>
   <sheetViews>
